--- a/ig/corecl/1.7.0/CodeSystem-CSCodigoDNI.xlsx
+++ b/ig/corecl/1.7.0/CodeSystem-CSCodigoDNI.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://hl7chile.cl/fhir/ig/corecl/CodeSystem/CSCodigoDNI</t>
+    <t>https://hl7chile.cl/fhir/ig/CoreCL/CodeSystem/CSCodigoDNI</t>
   </si>
   <si>
     <t>Version</t>
